--- a/Story_SAKI/Image/プロンプト.xlsx
+++ b/Story_SAKI/Image/プロンプト.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>美しい女性</t>
     <rPh sb="0" eb="1">
@@ -26,21 +26,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A stunning young woman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20歳</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>athletic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スポーツ体型</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -49,10 +34,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>long silver hair in a ponytail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>piercing blue eyes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -61,19 +42,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>natural makeup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナチュラルメイク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非常に細部まで描き込まれた</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>映画のようなライティング</t>
   </si>
   <si>
     <t>キャラクター</t>
@@ -87,146 +57,301 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>描画スタイル</t>
+    <t>アニメより</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傑作風に描く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディテールを細かく（髪の毛や服のシワまで）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エロ絵生成を明確に指示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nsfw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smooth white skin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白くて滑らかな肌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoRA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;lora:silvermagicalgirl:0.8&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀髪LoRAを適用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体全体</t>
+    <rPh sb="0" eb="3">
+      <t>カラダゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つの体</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>two bodies</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立っている</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>standing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正面を向いて</t>
     <rPh sb="0" eb="2">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facing viewer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服を着ていない</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割れた腹筋</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ab crack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バストサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋肉質な腕</t>
+    <rPh sb="0" eb="3">
+      <t>キンニクシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足まで描画</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメより</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20 years old</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cinematic lighting,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>傑作風に描く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>masterpiece</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>best quality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディテールを細かく（髪の毛や服のシワまで）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pixiv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pixiv風イラスト調に寄せる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エロ絵生成を明確に指示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>anime illustration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>flat color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2D shading</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメ塗り</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメ塗り</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2Dらしさを強調</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>anime style</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ultra-detailed,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ero</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nsfw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hentai</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D-cup breasts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>smooth white skin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白くて滑らかな肌</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バストサイズ指定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LoRA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;lora:silvermagicalgirl:0.8&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銀髪LoRAを適用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(masterpiece, best quality, ultra-detailed, pixiv, anime illustration,
-1girl, solo, full body, standing, centered,
-completely nude, smooth pale skin, fit and slender body,
-nipple piercing, clitoris piercing, jewel collar,
-short bob haircut, shoulder length, fluffy hair, slightly wavy hair, silver hair, ear partially visible, blue eyes,
-confident pose, looking at viewer, detailed hands, detailed feet, perfect anatomy,
-plain background, black background)
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(worst quality, low quality, bad anatomy, deformed, cropped, off-center,
-2girls, multiple girls, twin, clone, duplicate, extra body, extra arms, extra legs,
-clothes, dress, jacket, coat, accessories, jewelry except collar and piercings,
-background, landscape, trees, flowers, water, glowing, abstract, halo, effects, wings, ornaments,
-bad hands, fused fingers, missing fingers, bad legs, missing feet)
-</t>
+    <t>firm breasts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(masterpiece)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(best quality)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(cinematic lighting)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((full body))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((cropped))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しなやかな脚</t>
+    <rPh sb="5" eb="6">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>muscular arms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細い太もも</t>
+    <rPh sb="0" eb="1">
+      <t>ホソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tall body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋肉質な肩</t>
+    <rPh sb="0" eb="3">
+      <t>キンニクシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((missing toes))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((from head to toe))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(worst quality)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線画を強調</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(sharp lineart)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((clothes, outfit))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>muscular shoulders</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2D shading)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アングル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画風</t>
+    <rPh sb="0" eb="2">
+      <t>ガフウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(highres)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(low quality:1.4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A girl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(worst quality, low quality:1.4), bad hands, bad fingers, deformed hands, deformed fingers, fewer digits</t>
+  </si>
+  <si>
+    <t>(masterpiece, best quality, highres), 1girl, solo, white hair, short hair, straight hair, blunt bangs, grey eyes, flat chest, narrow waist, petite, pale skin, looking at viewer, blush, light smile, leaning forward, arms behind back, sailor dress, sailor hat, blue sailor collar, red neckerchief, harbor, sleeveless, portrait, wind, floating hair, wind lift, sunset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>solo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>muscular thighs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slender body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver hair in a ponytail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((nude))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画っぽく</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(anime style)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -298,13 +423,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419705</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349855</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>152883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -622,211 +747,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D53"/>
+  <dimension ref="B3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="69.6328125" customWidth="1"/>
+    <col min="4" max="4" width="44.08984375" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="3" spans="2:5" ht="31" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" ht="117" x14ac:dyDescent="0.2">
-      <c r="D51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
-        <v>46</v>
+    <row r="42" spans="2:4" ht="91" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
